--- a/malaria.xlsx
+++ b/malaria.xlsx
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>anaemia_count</t>
+          <t>FALSE_count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>anaemia_percent</t>
+          <t>FALSE_percent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>no anaemia_count</t>
+          <t>TRUE_count</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>no anaemia_percent</t>
+          <t>TRUE_percent</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -404,13 +404,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.36986301369863</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>10.52631578947368</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -421,16 +421,16 @@
     </row>
     <row r="3">
       <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>94.44444444444444</v>
+      </c>
+      <c r="D3">
         <v>72</v>
       </c>
-      <c r="C3">
-        <v>98.63013698630137</v>
-      </c>
-      <c r="D3">
-        <v>17</v>
-      </c>
       <c r="E3">
-        <v>89.47368421052632</v>
+        <v>97.29729729729731</v>
       </c>
       <c r="F3">
         <v>37</v>

--- a/malaria.xlsx
+++ b/malaria.xlsx
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>FALSE_count</t>
+          <t>anaemia_count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>FALSE_percent</t>
+          <t>anaemia_percent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TRUE_count</t>
+          <t>no anaemia_count</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>TRUE_percent</t>
+          <t>no anaemia_percent</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -404,13 +404,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5.555555555555555</v>
+        <v>1.36986301369863</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>2.702702702702703</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -421,16 +421,16 @@
     </row>
     <row r="3">
       <c r="B3">
+        <v>72</v>
+      </c>
+      <c r="C3">
+        <v>98.63013698630137</v>
+      </c>
+      <c r="D3">
         <v>17</v>
       </c>
-      <c r="C3">
-        <v>94.44444444444444</v>
-      </c>
-      <c r="D3">
-        <v>72</v>
-      </c>
       <c r="E3">
-        <v>97.29729729729731</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="F3">
         <v>37</v>
